--- a/analysisreegineering-extended.xlsx
+++ b/analysisreegineering-extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42B909-A0E6-461D-B484-7B644F6167ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1EEFDD-E881-4828-ADA1-61CDE897560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDC595CF-2820-4648-9A3E-8FAD3B95567C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
   <si>
     <t>Model for Service License in API Ecosystems</t>
   </si>
@@ -362,13 +362,241 @@
   </si>
   <si>
     <t>cyber-physical systems</t>
+  </si>
+  <si>
+    <t>YAML representation
+of Compose file and the Dockerfile scrip</t>
+  </si>
+  <si>
+    <t>Yaml representation of docker compose</t>
+  </si>
+  <si>
+    <t>docker compose</t>
+  </si>
+  <si>
+    <t>generates the Yaml representations for coker compose</t>
+  </si>
+  <si>
+    <t>mart building that needs support
+for continuous deployment of its IoT system together with
+security and privacy mechanisms</t>
+  </si>
+  <si>
+    <t>generate yaml file to deploy secure iot systems</t>
+  </si>
+  <si>
+    <t>generate yaml files for secure iot deployment</t>
+  </si>
+  <si>
+    <t>IoT deployment infrastrcuture</t>
+  </si>
+  <si>
+    <t>the authors don’t do any of those things since it’s a workshop paper</t>
+  </si>
+  <si>
+    <t>generate cloud infrascture scripts for different platforms</t>
+  </si>
+  <si>
+    <t>cloud infrasntucure for different platforms</t>
+  </si>
+  <si>
+    <t>the authors use atl to  transfrm several platform specific metamodels into platform independet metamodels and generate using acceleo templates the cloud infrstrucute scripts</t>
+  </si>
+  <si>
+    <t>real life company intended in deploying a product to the cloud</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>represent several devops tools and platforms</t>
+  </si>
+  <si>
+    <t>devops tools and platforms</t>
+  </si>
+  <si>
+    <t>the authors do model to model trasnformation from platform and tool models</t>
+  </si>
+  <si>
+    <t>data science</t>
+  </si>
+  <si>
+    <t>We evaluate the effectiveness of the approach by applying it to
+a DevOps scenario that simulates the real development activity
+at Tellu</t>
+  </si>
+  <si>
+    <t>e PSM
+as to proceed with software deployment accordingly</t>
+  </si>
+  <si>
+    <t>g Edge computing platform</t>
+  </si>
+  <si>
+    <t>the authors tranform psm of edge computing technology to their pim, the authors also generate the configuration scripts for deploying edge computing applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaloom is an emerging company developing a fully automated, programmable
+data center networking software solution that will disrupt how cloud and data
+center networks are built, managed and operated for enterprises, cloud providers,
+gaming companies, data center operators and 5G wireless providers. Kaloom
+comprises technology veterans with proven track records of delivering large-scale
+networking, analytics and AI-based solutions for the world’s largest networks.
+Since its foundation, Kaloom has been working on different aspects of DevOps
+challenges for Software Defined Systems, including the current </t>
+  </si>
+  <si>
+    <t>To evaluate the proposed approach, we selected three case
+studies that represent popular distributed cloud applications:
+a WordPress application,</t>
+  </si>
+  <si>
+    <t>y successfully transforming and deploying three
+cloud application</t>
+  </si>
+  <si>
+    <t>transforming and deploying three
+cloud application</t>
+  </si>
+  <si>
+    <t>The authors create  PIM to PSM transformation to the target environment</t>
+  </si>
+  <si>
+    <t>Our goal is to assess we can get equivalent results from different executions of
+the same conceptual pipeline (R&amp;R). For that purpose, we have manually generated the two previous execution environments from their specifications, executed
+them and compared both results. Given our approach is in an exploratory stage,
+functional code generators are not still available.</t>
+  </si>
+  <si>
+    <t>generate the data science pipeline</t>
+  </si>
+  <si>
+    <t>data science pipeline</t>
+  </si>
+  <si>
+    <t>An OCL3 expression
+constrains the types of input ports allowed and others at the model level, also transformations between different data scicen models and generation of the data science pipleine</t>
+  </si>
+  <si>
+    <t>To demonstrate our architecture language, we chose to model an exemplary smart home as smart homes are a popular use case for IoT systems (Reggio et al., 2020). Similar to the smart home case study presented in Arcaini et al. (2020), our smart home manages the home’s temperature and air quality and handles fires.</t>
+  </si>
+  <si>
+    <t>generate  C&amp;C language  code for deployment of Iot applications</t>
+  </si>
+  <si>
+    <t>Iot architecture</t>
+  </si>
+  <si>
+    <t>generate  C&amp;C language  code for deployment of Iot applications and m2m from psm to pim and several envrionment constraints given by the user</t>
+  </si>
+  <si>
+    <t>Keptn is an open-source control plane for orchestrating continuous delivery (CD) and operational processes of cloud-based applications. It started in January 2019 by the company Dynatrace and then donated to the Cloud-Native Computing Foundation (CNCF) in 2020</t>
+  </si>
+  <si>
+    <t>Blended Modeling and Simulation of DevOps Processes</t>
+  </si>
+  <si>
+    <t>devops processes</t>
+  </si>
+  <si>
+    <t>devops pipelines</t>
+  </si>
+  <si>
+    <t>cdev,ct,cm</t>
+  </si>
+  <si>
+    <t>several industrial case studies</t>
+  </si>
+  <si>
+    <t>To this end, the project proposes to combine
+Model Driven Engineering principles and techniques
+with AI-enhanced methods and tools for engineering
+more trustable and reliable CPSs.</t>
+  </si>
+  <si>
+    <t>To this end, the project proposes to combine Model Driven Engineering principles and techniques with AI-enhanced methods and tools for engineering more trustable and reliable CPSs.</t>
+  </si>
+  <si>
+    <t>To this end, the project proposes to combine
+Model Driven Engineering principles and techniques
+with AI-enhanced methods and tools for engineering
+more trustable and reliable CPSs.is to reuse and extend
+EMF Views to support the development of various news
+features of the tool as well as their application within
+different AIDOaRt use cases or scenarios.MOMOT relies on Henshin, a graph-based model
+transformation framework to generate solution instance
+models that optimize given objectives and while satisfying
+given constraints, specified in Java or OCL</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>3 different use cases in environments of
+various kinds such as safety on IoT in 5G, public administration,
+and maritime infrastructures</t>
+  </si>
+  <si>
+    <t>The ICG tool (Figure 4) can be seen as a DOML compiler that
+generates executable IaC code.</t>
+  </si>
+  <si>
+    <t>Security and Operations) proce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m DOMLX. The ICG tool (Figure 4) can be seen as a DOML compiler that
+generates executable IaC code
+to DOML format will be supported, allowing the transformation </t>
+  </si>
+  <si>
+    <t>validate pipelines</t>
+  </si>
+  <si>
+    <t>automated evaluation</t>
+  </si>
+  <si>
+    <t>automatic validation of 42,106 pipelines</t>
+  </si>
+  <si>
+    <t>parse and repreent devops pipelines</t>
+  </si>
+  <si>
+    <t>we report on our 7 years of practical experience designing, developing, deploying, using, and evolving an iterative Model-based Requirements Engineering (MBRE) approach and language in the context of five large European collaborative projects providing complex software-intensive solutions</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>The microtasks-based approach proposed in this article has been influenced by microtask programming [51]. In there, the software development tasks are broken down into smaller tasks that can be distributed to different development teams or individual developers to provide easy-to-follow decontextualized assignments, decrease joining barriers, and optimize the effort of allocating developers to multiple projects.</t>
+  </si>
+  <si>
+    <t>DOML models are turned into actual deployments by the Infrastructural Code Generator (ICG), which produces IaCs executable in the existing and well-supported frameworks. Our first target IaCs are Terraform, Ansible, and the configuration of Docker Compose. Nevertheless, the same ICG could be extended to generate other IaC languages to target more applications and CSPs</t>
+  </si>
+  <si>
+    <t>IoC architecture</t>
+  </si>
+  <si>
+    <t>We evaluate the DOML by using it in a concrete case study and against other state-of-the-art IaC approaches, with the objective to demonstrate its capabilities and shortcomings. We provide a discussion of the evaluation in Section 7. We identify the following research questions (RQs):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom DevOps pipeline for the entire Fog application development and operation process.
+</t>
+  </si>
+  <si>
+    <t>graphically compose applications from components previously delivered by component developers, abstracting them from the underlying technologies</t>
+  </si>
+  <si>
+    <t>platform automates graphical composition of Dockerized application components</t>
+  </si>
+  <si>
+    <t>or this reason, it is straightforward for the Platform Administrator to transform the XML Application Model to the Application Delivery Model using model-to-model (M2M). Additionally, the Component Programmer is provided with the stylesheets needed to execute the M2T transformations necessary to obtain valid library nodes. As high-performance and real-time requirements become more relevant, as part of the future work, the Component development process can be optimized and restricted to allow for real-time container deployment transformations, performed through the appModelTransformer.xslt. Kubernetes offers several constructs to deploy and run Docker containers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +612,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +644,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -438,6 +678,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,9 +1596,47 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,9 +1646,47 @@
       <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,9 +1696,47 @@
       <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1387,9 +1746,47 @@
       <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,9 +1796,47 @@
       <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1413,7 +1848,7 @@
       </c>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,19 +1858,71 @@
       <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2020</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -1444,9 +1931,14 @@
       <c r="C20" t="s">
         <v>105</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,108 +1948,556 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2022</v>
       </c>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>2022</v>
       </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>2022</v>
       </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>2024</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>2024</v>
       </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>2024</v>
       </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>2024</v>
       </c>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2024</v>
       </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1565,8 +2505,12 @@
         <v>2024</v>
       </c>
       <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1574,8 +2518,9 @@
         <v>2024</v>
       </c>
       <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1583,44 +2528,45 @@
         <v>2024</v>
       </c>
       <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
@@ -1656,11 +2602,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1820,26 +2767,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1863,9 +2801,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/analysisreegineering-extended.xlsx
+++ b/analysisreegineering-extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1EEFDD-E881-4828-ADA1-61CDE897560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C62400-E703-41C2-BEF3-5D6A03CBA6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDC595CF-2820-4648-9A3E-8FAD3B95567C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
   <si>
     <t>Model for Service License in API Ecosystems</t>
   </si>
@@ -591,12 +591,58 @@
   <si>
     <t>or this reason, it is straightforward for the Platform Administrator to transform the XML Application Model to the Application Delivery Model using model-to-model (M2M). Additionally, the Component Programmer is provided with the stylesheets needed to execute the M2T transformations necessary to obtain valid library nodes. As high-performance and real-time requirements become more relevant, as part of the future work, the Component development process can be optimized and restricted to allow for real-time container deployment transformations, performed through the appModelTransformer.xslt. Kubernetes offers several constructs to deploy and run Docker containers</t>
   </si>
+  <si>
+    <t>iles generated for deploying Kafka and Zookeeper follow the rules defined by Helm</t>
+  </si>
+  <si>
+    <t>roposes a model-based tool to characterise the different elements to be configured in an application and to make its deployment easier by generating configuration, orchestration and deployment files and sending them to the corresponding nodes for their executio</t>
+  </si>
+  <si>
+    <t>configuration and deployment of data-intensive applications</t>
+  </si>
+  <si>
+    <r>
+      <t>roposes a model-based tool to characterise the different elements to be configured in an application and to make its deployment easier by generating configuration, orchestration and deployment files and sending them to the corresponding nodes for their executio.constraints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>: this feature allows modelling restrictions to ensure that applications are deployed only on some specific nodes (via labels) or on nodes that have a minimum level of specifications (via resources).</t>
+    </r>
+  </si>
+  <si>
+    <t>ci/cd</t>
+  </si>
+  <si>
+    <t>The proposed solution is an extension to the
+Justification Diagram (JD) model that would enable developers
+to seamlessly develop such pipelines iterative and incrementally,
+through the use of patterns and merging syntax. This tool will
+help better integrate CI/CD pipelines into the DevOps process,
+ultimately creating more maintainable and justified pipelines.</t>
+  </si>
+  <si>
+    <t>ci/cd pipelines</t>
+  </si>
+  <si>
+    <t>Consider a hypothetical small business, FreshBlends (FB) operating a family-owned local grocery store for healthy smoothie delivery. FB seeks to develop a new application to manage inventory, sales, and customer information.</t>
+  </si>
+  <si>
+    <t>This research aims to support businesses adopting citizen development by providing a framework that helps to proactively identify security risks by also linking them to specific actors and tools needed during the system design and development process to mitigate those risks</t>
+  </si>
+  <si>
+    <t>only design and validation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +664,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -663,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -683,6 +741,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2198,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2425,10 +2487,10 @@
       <c r="I31" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" t="s">
         <v>163</v>
       </c>
       <c r="L31" t="b">
@@ -2443,7 +2505,7 @@
       <c r="O31" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2463,7 +2525,7 @@
       <c r="E32" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
         <v>165</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2478,7 +2540,7 @@
       <c r="J32" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" t="s">
         <v>167</v>
       </c>
       <c r="L32" t="b">
@@ -2493,80 +2555,195 @@
       <c r="O32" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>2024</v>
       </c>
-      <c r="D33"/>
-      <c r="F33" s="1"/>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>2024</v>
       </c>
-      <c r="D34"/>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>2024</v>
       </c>
-      <c r="D35"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
@@ -2597,17 +2774,17 @@
       <c r="D57"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P35" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2767,17 +2944,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2801,17 +2987,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/analysisreegineering-extended.xlsx
+++ b/analysisreegineering-extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C62400-E703-41C2-BEF3-5D6A03CBA6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FBF57-B7BE-4133-96C0-82B9808B2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDC595CF-2820-4648-9A3E-8FAD3B95567C}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -740,7 +740,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2197,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2587,10 +2586,10 @@
       <c r="I33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" t="s">
         <v>171</v>
       </c>
       <c r="L33" t="b">
@@ -2605,7 +2604,7 @@
       <c r="O33" t="b">
         <v>1</v>
       </c>
-      <c r="P33" s="9" t="s">
+      <c r="P33" s="8" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2635,7 +2634,7 @@
       <c r="I34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" t="s">
         <v>174</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2653,7 +2652,7 @@
       <c r="O34" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2703,7 +2702,7 @@
       <c r="O35" t="b">
         <v>0</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2780,11 +2779,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2944,26 +2944,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="417546b7-7497-41cb-8a8a-51c855da4585" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2987,9 +2978,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DD714-1737-4DC7-A568-25FDC6D433CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F511B830-FD05-48FC-B126-A818CBF99FF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="417546b7-7497-41cb-8a8a-51c855da4585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/analysisreegineering-extended.xlsx
+++ b/analysisreegineering-extended.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugoa\Desktop\repos\slrdevopsmde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FBF57-B7BE-4133-96C0-82B9808B2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13448888-E835-4283-8E39-B74D3909027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDC595CF-2820-4648-9A3E-8FAD3B95567C}"/>
   </bookViews>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F9219-DFE0-42A9-9B39-831FCE871F60}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26">
